--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -77,7 +77,7 @@
     <t>apiToken</t>
   </si>
   <si>
-    <t>EwBoBMl6BAAUu4TQbLz/EdYigQnDPtIo76ZZUKsAAeH0Lof77ulQV5e9ohDB+mQq3fyKpcQMiUY3kjnELReFC+1lthUujTGpuSPWzkFpWKEdIsju6cgw8WeiY2HQfYjs4ndIPWYO57e+MqoUjsdq8MKHsrB5F15XGKBBufEHljFZ4HSlwxcSNDPgwoLuqK8xd6Sf8M1iZJDDPvovWIQnB0hfU3HpGowT6qF1s+6Z6Z6kZlgWFrxfmr43g1Wd4M1NANpGvkwzF4cbKrdSEe2OaFAXzlLM9Jlxp2nK0pkHLj0ZwW6CKIharW1AUyB+1+bP5Kt27QvrNjjqRumlkrsHcZS32JtdVWvlAAcWmsAu8bE64Us0wXu/UMJ8w6aVYT8QZgAAEHKAzeUFaLw8lVATp5HO56EwAyPEeGWjP7Wz1Q9ayqIRpCBCoNPCIbff9/yB8Zn6riaDSwIfSsybnNkmvk4pkHYAlZF3fMMxucqeCXEo4DV5qLmirE5T+BUmo1FLzkPS4izcOhKCDE9/wX9/G0Hhp34436EwNjMPpakjBRhfRk/++Do/gclnvUZ0VzFn/NGZ8E0q4qB3qQMLPBa8GU/Na9v+v1sjMWIQ3gYk3Oo00AWQP+b3trr6htC4Y0hkZmAhfvP+D7OFN3tPZcowXtVPMShMwvhSOf4VJhvqOhsCy56wB/X1GibPO/CKBndxZuxv7t0LjVYc62xmp2PD/V7YlCp8Hl81W6d2WIlFl2vs4rIoqSyJ14Lk1KhD1T+R5ZiYroDdUD/z6+3SU3MIB56Sv3RmJZyeW3P0YDoG4sMZtYEaX4OhoyX2+qjDPaqw5lXF6yEh4jewarru61aT3uEK2uotgKG0gzmbjCJybVS5QsXfE/ECsjjss/VWB0bLJnyAQ8XQyxVk+/RHIQUCM/e7eX7lRWainmExwgn5jLCjn3gsxotQWVE+NAPFm+cy/I0x0Y1U6t4pPLZGLlftOojD64J0GpvBhqz3yjwdURkKSrkHA7L74lSt0bJOoCURHexZHvf+MhKvG8lvjCjufR+ru7OGrWv+KSO39YIFhH6Wkj5Whp00y0ZEJs+gtZM97phapO0sQce4slepqKipoXmRbJXnKr1EndLcseHPFwUqWqXoBrWd9w1xuiMZQaxPcxrxZ5fdRQSaBnCKYlYEIMmDmtU13+ptp3ZHgx3GpSpW4NjOKE09a4G+jlBHnhpQunhZZLSM4sLXDboyA9HFKryZjpM+k3eEayyR75LuBqClyGsUN8iTtUmIM1OIcZ6h/GTU6eXOn57X2QeObvkNj1KyhboLjrc8ekAk2XXHC1UEwaJou5ynbxKF4zCbK8UxH0L71P2KQPAbrDBY5fmztSZhNDvMzg6q5LCxTD296qHOd+RrWeX1CwpcvRBAouJSxULqMdgSbYo54ILL07n5cSqwjzfs6ggRK7cosXpw9Uf3ey/oRvh5ka6WbUhqQjzdZEdgov48IuCwsJZt2gl4Jy4Pw2C1E3MD</t>
+    <t>EwB4BMl6BAAUu4TQbLz/EdYigQnDPtIo76ZZUKsAAQefMjAFIlNE5/LafBl/NryhYMDR8fS9VHydSgmXA2y5gSverQVkzeNgZXXzrJ4dhAcDE6wh3BU+Bi0WbDDtMN4xEPWhB5jaebKIHj0FQYUQNCbpS/W0AS7ufMk6WK4hMZhorgizIGufTtewi/wBwIUs230BGdxHHAWR6Xe2V5jMK/BpvhAYwcuS4pyakvg/xQuo9P+hUoL+SRYYVZj0qdnP4qO13eB/I2+3b8YKak4Xo7YT073qikuA9JBI+oG3EnR1XyVlQIdMpjifGSw/OW6k1JkBu/dPaGhnu6abbUYn5cYfaD0yPZhXFhKJthzy8yxAEeWFnlc+wN1DYda/7EYQZgAAEAok5ftolAT+9ftSJeFeJBRAAy6jeWLt27HJljWXmNLKjnrHhi7kKRwDT/DT2oEhd5A+LMB8KcSPmA4yzWd2PQoGmYckaPz5HkzWfT7qMQoPYA4WLSca1Uml1ZQmpxLKg/qzyVXvn2Z674cKApezar7ZrNuWfqznUMn9KYVxeIC4j2oq2PzzcLFxdKB74OutEmgnszNSOgcQPWhFOc2KILbj1TkQewR+gZR4bE/Ga4sgjKfk0xHNZOhJ88ZFgCdE+CiplNcAlWfsL05mn5H4wejoVFpnfCCqVz5UP2ZOY7IGNjeY+YifXPLFjLDOPvt8xi+AePRMoEL8ypf+KPmKCUw+wxkhuPZ4bXKfxsskztK8D+e6feRI/OVlbXLg+ui+yTTP1y6h2aFROKSx//yrfdMsV7dGITK3ekwxBXO2QmXAp1JQglio1woULvR0gf2xrDlF9kEODerSaACJxPlgcp5744xXISVccLKClvOcfUcN3k15FlnSCRsboLgTvPKRF1PjnvU7ViXlcDYuYb5QdX0IzJty29dhLqUn18nxqEAQjtx3CBPjOruLHT8FBWB7fJzXa9UGjGom9iGYK+1Ch6i2aFhSdTumqusFFmYy3ibQygeodwOxVWDhB7HAHpN2A+OfwDSD+MAEs4ZNvYM9cTHmIseoasAu6Uwp1zCXYsi91h39GEs5/hWsAhZ0DlRpb6c5rlIcsso9S0u/x9lWJhF3gZHtfrHx1Vy+Jj1CgQXA9XqFABOTNi7wQHcXLcWRVM9JJeWR4epPkcl2esYf1YkT39LtZ38FqsENXR1pQDXZjviGHYXbJhXAbnFT5Jp62PnO4mWsqiPnTClazcx5NcOHw4vlV5u7tQwB7IIbuXEaRjF7j5Q8SUiPZQw7MqsvPmw6xh/WCQ4D2FlK2yup79w4mycusATanIicKcZrC2tg7tBHnzeh5C01t+rjLS7xigcfVaa7h5Qblx7C+GSn7aIpHX7X1UvhmJGKqcufv2ligZWTqWw4PIkIRrreiCbOB+g9GIDmhJbT55EWYFUAW1v6piaMMfK87F9cQAZokFYapZMa+1rWTHFSdXjxV7GiIKaeojg51nyw89zxD1I9xnFZAOkm1dHL2cD1WMY/Gg5wHxBzAw==</t>
   </si>
   <si>
     <t>BASE DE DATOS</t>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -77,7 +77,7 @@
     <t>apiToken</t>
   </si>
   <si>
-    <t>EwB4BMl6BAAUu4TQbLz/EdYigQnDPtIo76ZZUKsAAQefMjAFIlNE5/LafBl/NryhYMDR8fS9VHydSgmXA2y5gSverQVkzeNgZXXzrJ4dhAcDE6wh3BU+Bi0WbDDtMN4xEPWhB5jaebKIHj0FQYUQNCbpS/W0AS7ufMk6WK4hMZhorgizIGufTtewi/wBwIUs230BGdxHHAWR6Xe2V5jMK/BpvhAYwcuS4pyakvg/xQuo9P+hUoL+SRYYVZj0qdnP4qO13eB/I2+3b8YKak4Xo7YT073qikuA9JBI+oG3EnR1XyVlQIdMpjifGSw/OW6k1JkBu/dPaGhnu6abbUYn5cYfaD0yPZhXFhKJthzy8yxAEeWFnlc+wN1DYda/7EYQZgAAEAok5ftolAT+9ftSJeFeJBRAAy6jeWLt27HJljWXmNLKjnrHhi7kKRwDT/DT2oEhd5A+LMB8KcSPmA4yzWd2PQoGmYckaPz5HkzWfT7qMQoPYA4WLSca1Uml1ZQmpxLKg/qzyVXvn2Z674cKApezar7ZrNuWfqznUMn9KYVxeIC4j2oq2PzzcLFxdKB74OutEmgnszNSOgcQPWhFOc2KILbj1TkQewR+gZR4bE/Ga4sgjKfk0xHNZOhJ88ZFgCdE+CiplNcAlWfsL05mn5H4wejoVFpnfCCqVz5UP2ZOY7IGNjeY+YifXPLFjLDOPvt8xi+AePRMoEL8ypf+KPmKCUw+wxkhuPZ4bXKfxsskztK8D+e6feRI/OVlbXLg+ui+yTTP1y6h2aFROKSx//yrfdMsV7dGITK3ekwxBXO2QmXAp1JQglio1woULvR0gf2xrDlF9kEODerSaACJxPlgcp5744xXISVccLKClvOcfUcN3k15FlnSCRsboLgTvPKRF1PjnvU7ViXlcDYuYb5QdX0IzJty29dhLqUn18nxqEAQjtx3CBPjOruLHT8FBWB7fJzXa9UGjGom9iGYK+1Ch6i2aFhSdTumqusFFmYy3ibQygeodwOxVWDhB7HAHpN2A+OfwDSD+MAEs4ZNvYM9cTHmIseoasAu6Uwp1zCXYsi91h39GEs5/hWsAhZ0DlRpb6c5rlIcsso9S0u/x9lWJhF3gZHtfrHx1Vy+Jj1CgQXA9XqFABOTNi7wQHcXLcWRVM9JJeWR4epPkcl2esYf1YkT39LtZ38FqsENXR1pQDXZjviGHYXbJhXAbnFT5Jp62PnO4mWsqiPnTClazcx5NcOHw4vlV5u7tQwB7IIbuXEaRjF7j5Q8SUiPZQw7MqsvPmw6xh/WCQ4D2FlK2yup79w4mycusATanIicKcZrC2tg7tBHnzeh5C01t+rjLS7xigcfVaa7h5Qblx7C+GSn7aIpHX7X1UvhmJGKqcufv2ligZWTqWw4PIkIRrreiCbOB+g9GIDmhJbT55EWYFUAW1v6piaMMfK87F9cQAZokFYapZMa+1rWTHFSdXjxV7GiIKaeojg51nyw89zxD1I9xnFZAOkm1dHL2cD1WMY/Gg5wHxBzAw==</t>
+    <t>EwBoBMl6BAAUu4TQbLz/EdYigQnDPtIo76ZZUKsAAYY7vANNPTBMQEkfiOzOWHoAyCKbifjWHNDG/H4n/hENTh6wMOfUrJenJjUmnNhI7gF6gBC7C/hzkZ9Wr98uKO3SAS5yTtar7bDLaYMJVHzYommsjZiH99Bd/kO9RoIbitXDc7yKYkZCd+qq75spb91ANKWooStD2wfN9lnR70syRxXP19rl7GbgJ10/Ooy5hEjHOA19W92LIPsxrw8ONxfF0XIAM4wZ4AyUnC9lL1EJsFHDEMhvVc+K2JGN0CpuDu0hILHUgj9lnUoern/QG6h3z+ukmtm1EIk+pfx824P540hXE97g1fcDa+KzC0WGJb7Sw9vFIPWUpi5GaGFV4KIQZgAAECOw7FzFgfqJ4KHcgNuQ7w8wAwnToWoFMWzSsY25WYp8b9m2eih5fHbrixzSkS9mkATmZzrTS2N0FgWd60KhPqfIzC0wICZF8gZcOou6h4DZ0Q49sFrMZVQ9kzcxZsD/YFaoWpUFczYWdbBH6DYPegxwXloaRDaiAu4SfHQfnKzHEVYe++r1egJqJVqqoxd85Quyp2r2xGMJR8zw13J2L7ZnrwvNnYUub1KDY0aCnPtBTQnLq8zj+pOACpJcSfi1p3hAiHAYhUjlttJ0Oc9pDXGEKdvHluBIRibs/YZIwaUTrQ1SNaJwWfTk8cLA0/RxWHER9oO+lS4opl+CWgux2dgZsTO2elqwJ+XdvbXj9laqEZns+9l1LI6NYXzVPKX/VRHStYwcoNafEG03W7UhyObVH0d4/Tx2qly4zDdHEpG31HNJ7ZtkLo0Yo021mDt/jqLLVnmBr9YiDmkWamidOph3mIrjFJMrTEsXTccR9GIgC3i2wR3upIHujJPFDli1S0czE92APLi8S5Kmt1AeFTtjWe4k3Cp4VeCbCchBs5DkxdlU5oZltI0RB0eeddAJatqH6ErxfhZ61BfxeRA7l0I25/pyKIlatcN7mWcvFZeWqNyJxOJejEAyCbCkhzrHKuoUN1NpnAWiZeY9SIFV3HIA5c05HUdpIvOhbC7YHAumQKP0i8Kn2VM71Q69qumGhFb2BGBwOLb9iovADTMoIxVESUAO0mgejEkBrtF7QEnRzllNjiJqSJg0lQVAfpawjAxraB6XR+EW3vcZBq9klMwHJNtggccR7xp0W5BDEJMbwtzYKRVEHnRTijojpjI/pSn7MHQPXxCbNEzlQEJ6AqUi11wVXBhydQu5iggONBAOlCVeus6fGlzBJ5o0PF3HYvzHVM3/HMgqn3FYmWKC0uOC922UxguX+h0mgpO4HVIbl/PLWgdxWe+w/O+zRJYy7aLZkX7+Huxfoq5xjqy0ZWm5uSszL3YCXXu419qUX/ZtHAY/64w38NnY3nrUs4fiD8qjh0b9Gt77kB1ZiNNKF+P3H3KeK0d4o9N0uFKi/hCrxFTlTWfmZuDoP60OZzX+KphyvfpndSlkANq4tGraXAGiL3MD</t>
   </si>
   <si>
     <t>BASE DE DATOS</t>
